--- a/AAA/myRepo-master/cypress/fixtures/{D}.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/{D}.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -30,10 +30,10 @@
     <t>Tin nhắn mẫu</t>
   </si>
   <si>
+    <t>á 1!(a^{</t>
+  </si>
+  <si>
     <t>{D}</t>
-  </si>
-  <si>
-    <t>á 1!(a^{</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -375,10 +375,10 @@
         <v>100248</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/AAA/myRepo-master/cypress/fixtures/{D}.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/{D}.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>100248</v>
+        <v>131887</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
